--- a/Team-Data/2014-15/4-8-2014-15.xlsx
+++ b/Team-Data/2014-15/4-8-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>0.756</v>
+        <v>0.753</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="L2" t="n">
         <v>10</v>
@@ -705,7 +772,7 @@
         <v>21.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.778</v>
+        <v>0.779</v>
       </c>
       <c r="R2" t="n">
         <v>8.699999999999999</v>
@@ -717,10 +784,10 @@
         <v>40.6</v>
       </c>
       <c r="U2" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="V2" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W2" t="n">
         <v>9</v>
@@ -738,13 +805,13 @@
         <v>19.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -759,7 +826,7 @@
         <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
         <v>27</v>
@@ -783,7 +850,7 @@
         <v>24</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR2" t="n">
         <v>30</v>
@@ -804,10 +871,10 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -848,25 +915,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="n">
         <v>42</v>
       </c>
       <c r="G3" t="n">
-        <v>0.462</v>
+        <v>0.455</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J3" t="n">
-        <v>87.90000000000001</v>
+        <v>88</v>
       </c>
       <c r="K3" t="n">
         <v>0.442</v>
@@ -875,34 +942,34 @@
         <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="N3" t="n">
         <v>0.325</v>
       </c>
       <c r="O3" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="P3" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.757</v>
+        <v>0.752</v>
       </c>
       <c r="R3" t="n">
         <v>11.1</v>
       </c>
       <c r="S3" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T3" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U3" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="V3" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
@@ -914,28 +981,28 @@
         <v>5.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
         <v>7</v>
@@ -965,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
         <v>11</v>
@@ -974,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
         <v>5</v>
@@ -983,19 +1050,19 @@
         <v>10</v>
       </c>
       <c r="AW3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX3" t="n">
         <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" t="n">
         <v>36</v>
       </c>
       <c r="F4" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" t="n">
-        <v>0.462</v>
+        <v>0.468</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1048,28 +1115,28 @@
         <v>37.5</v>
       </c>
       <c r="J4" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L4" t="n">
         <v>6.6</v>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.33</v>
+        <v>0.331</v>
       </c>
       <c r="O4" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P4" t="n">
         <v>22.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="R4" t="n">
         <v>10.2</v>
@@ -1078,7 +1145,7 @@
         <v>32</v>
       </c>
       <c r="T4" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U4" t="n">
         <v>20.9</v>
@@ -1102,13 +1169,13 @@
         <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC4" t="n">
         <v>-3</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1120,7 +1187,7 @@
         <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
         <v>16</v>
@@ -1129,7 +1196,7 @@
         <v>17</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1141,10 +1208,10 @@
         <v>26</v>
       </c>
       <c r="AO4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP4" t="n">
         <v>18</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>20</v>
@@ -1153,7 +1220,7 @@
         <v>24</v>
       </c>
       <c r="AS4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT4" t="n">
         <v>22</v>
@@ -1162,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -1212,43 +1279,43 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" t="n">
         <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" t="n">
-        <v>0.423</v>
+        <v>0.429</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J5" t="n">
-        <v>84.8</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.422</v>
+        <v>0.423</v>
       </c>
       <c r="L5" t="n">
         <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.317</v>
+        <v>0.315</v>
       </c>
       <c r="O5" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P5" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="Q5" t="n">
         <v>0.751</v>
@@ -1257,16 +1324,16 @@
         <v>10.1</v>
       </c>
       <c r="S5" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="T5" t="n">
-        <v>44.3</v>
+        <v>44.4</v>
       </c>
       <c r="U5" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V5" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="W5" t="n">
         <v>6</v>
@@ -1275,22 +1342,22 @@
         <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.7</v>
+        <v>95</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.3</v>
+        <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1329,16 +1396,16 @@
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
       </c>
       <c r="AS5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU5" t="n">
         <v>26</v>
@@ -1353,7 +1420,7 @@
         <v>6</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
         <v>5</v>
@@ -1362,7 +1429,7 @@
         <v>7</v>
       </c>
       <c r="BB5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" t="n">
         <v>46</v>
       </c>
       <c r="F6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" t="n">
-        <v>0.59</v>
+        <v>0.597</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
@@ -1412,7 +1479,7 @@
         <v>36.6</v>
       </c>
       <c r="J6" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K6" t="n">
         <v>0.442</v>
@@ -1421,19 +1488,19 @@
         <v>7.8</v>
       </c>
       <c r="M6" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="N6" t="n">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="O6" t="n">
         <v>19.8</v>
       </c>
       <c r="P6" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.784</v>
+        <v>0.785</v>
       </c>
       <c r="R6" t="n">
         <v>11.7</v>
@@ -1463,25 +1530,25 @@
         <v>18.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB6" t="n">
         <v>100.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>7</v>
@@ -1490,10 +1557,10 @@
         <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
         <v>15</v>
@@ -1508,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="AP6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ6" t="n">
         <v>3</v>
@@ -1517,7 +1584,7 @@
         <v>7</v>
       </c>
       <c r="AS6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
@@ -1526,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
@@ -1535,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
         <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>0.654</v>
+        <v>0.649</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
@@ -1594,7 +1661,7 @@
         <v>37.7</v>
       </c>
       <c r="J7" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K7" t="n">
         <v>0.459</v>
@@ -1603,7 +1670,7 @@
         <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="N7" t="n">
         <v>0.366</v>
@@ -1612,10 +1679,10 @@
         <v>18</v>
       </c>
       <c r="P7" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R7" t="n">
         <v>11.1</v>
@@ -1630,7 +1697,7 @@
         <v>21.9</v>
       </c>
       <c r="V7" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W7" t="n">
         <v>7.5</v>
@@ -1654,7 +1721,7 @@
         <v>5.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
         <v>7</v>
@@ -1666,7 +1733,7 @@
         <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
@@ -1687,16 +1754,16 @@
         <v>6</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
         <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS7" t="n">
         <v>21</v>
@@ -1720,10 +1787,10 @@
         <v>11</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB7" t="n">
         <v>6</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -1761,22 +1828,22 @@
         <v>77</v>
       </c>
       <c r="E8" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>0.61</v>
+        <v>0.597</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>85.7</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.461</v>
@@ -1785,13 +1852,13 @@
         <v>8.9</v>
       </c>
       <c r="M8" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="O8" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P8" t="n">
         <v>22.3</v>
@@ -1800,13 +1867,13 @@
         <v>0.751</v>
       </c>
       <c r="R8" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
         <v>22.4</v>
@@ -1815,7 +1882,7 @@
         <v>12.9</v>
       </c>
       <c r="W8" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>4.5</v>
@@ -1824,10 +1891,10 @@
         <v>3.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB8" t="n">
         <v>104.6</v>
@@ -1836,7 +1903,7 @@
         <v>2.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1851,10 +1918,10 @@
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1869,22 +1936,22 @@
         <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR8" t="n">
         <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1893,7 +1960,7 @@
         <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX8" t="n">
         <v>21</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" t="n">
         <v>49</v>
       </c>
       <c r="G9" t="n">
-        <v>0.372</v>
+        <v>0.364</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J9" t="n">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L9" t="n">
         <v>7.9</v>
       </c>
       <c r="M9" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.323</v>
+        <v>0.321</v>
       </c>
       <c r="O9" t="n">
         <v>17.6</v>
@@ -1979,7 +2046,7 @@
         <v>24.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.731</v>
+        <v>0.73</v>
       </c>
       <c r="R9" t="n">
         <v>12.1</v>
@@ -1991,7 +2058,7 @@
         <v>44.4</v>
       </c>
       <c r="U9" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V9" t="n">
         <v>14.1</v>
@@ -2003,7 +2070,7 @@
         <v>4.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z9" t="n">
         <v>22.8</v>
@@ -2012,13 +2079,13 @@
         <v>20.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.7</v>
+        <v>-4</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2030,7 +2097,7 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>18</v>
@@ -2057,16 +2124,16 @@
         <v>8</v>
       </c>
       <c r="AQ9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR9" t="n">
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU9" t="n">
         <v>16</v>
@@ -2078,7 +2145,7 @@
         <v>15</v>
       </c>
       <c r="AX9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>
@@ -2093,7 +2160,7 @@
         <v>15</v>
       </c>
       <c r="BC9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -2122,43 +2189,43 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" t="n">
         <v>30</v>
       </c>
       <c r="F10" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" t="n">
-        <v>0.385</v>
+        <v>0.39</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J10" t="n">
-        <v>85.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="K10" t="n">
-        <v>0.43</v>
+        <v>0.428</v>
       </c>
       <c r="L10" t="n">
         <v>8.4</v>
       </c>
       <c r="M10" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
         <v>0.338</v>
       </c>
       <c r="O10" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P10" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q10" t="n">
         <v>0.705</v>
@@ -2170,13 +2237,13 @@
         <v>32.1</v>
       </c>
       <c r="T10" t="n">
-        <v>44.9</v>
+        <v>45</v>
       </c>
       <c r="U10" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V10" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W10" t="n">
         <v>7.6</v>
@@ -2185,22 +2252,22 @@
         <v>4.7</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,13 +2279,13 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
         <v>27</v>
@@ -2227,13 +2294,13 @@
         <v>11</v>
       </c>
       <c r="AM10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN10" t="n">
         <v>23</v>
       </c>
       <c r="AO10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP10" t="n">
         <v>16</v>
@@ -2263,10 +2330,10 @@
         <v>13</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
@@ -2421,7 +2488,7 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR11" t="n">
         <v>20</v>
@@ -2442,7 +2509,7 @@
         <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -2489,22 +2556,22 @@
         <v>77</v>
       </c>
       <c r="E12" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>0.675</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K12" t="n">
         <v>0.442</v>
@@ -2513,34 +2580,34 @@
         <v>11.5</v>
       </c>
       <c r="M12" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="N12" t="n">
         <v>0.347</v>
       </c>
       <c r="O12" t="n">
-        <v>17.9</v>
+        <v>18.2</v>
       </c>
       <c r="P12" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.719</v>
+        <v>0.718</v>
       </c>
       <c r="R12" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S12" t="n">
         <v>31.8</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V12" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="W12" t="n">
         <v>9.6</v>
@@ -2552,28 +2619,28 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.5</v>
+        <v>103.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF12" t="n">
         <v>3</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH12" t="n">
         <v>19</v>
@@ -2582,10 +2649,10 @@
         <v>20</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2597,16 +2664,16 @@
         <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
       </c>
       <c r="AR12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS12" t="n">
         <v>22</v>
@@ -2618,7 +2685,7 @@
         <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW12" t="n">
         <v>2</v>
@@ -2627,19 +2694,19 @@
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BB12" t="n">
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" t="n">
         <v>43</v>
       </c>
       <c r="G13" t="n">
-        <v>0.449</v>
+        <v>0.442</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2686,10 +2753,10 @@
         <v>36.5</v>
       </c>
       <c r="J13" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L13" t="n">
         <v>7.4</v>
@@ -2698,31 +2765,31 @@
         <v>21.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O13" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P13" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R13" t="n">
         <v>10.4</v>
       </c>
       <c r="S13" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="T13" t="n">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="U13" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V13" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W13" t="n">
         <v>6.2</v>
@@ -2734,31 +2801,31 @@
         <v>4.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB13" t="n">
         <v>97.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
         <v>20</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2767,10 +2834,10 @@
         <v>16</v>
       </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2779,28 +2846,28 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT13" t="n">
         <v>6</v>
       </c>
       <c r="AU13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW13" t="n">
         <v>28</v>
@@ -2809,7 +2876,7 @@
         <v>19</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
         <v>21</v>
@@ -2821,7 +2888,7 @@
         <v>24</v>
       </c>
       <c r="BC13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -2943,7 +3010,7 @@
         <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ14" t="n">
         <v>15</v>
@@ -2964,7 +3031,7 @@
         <v>8</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ14" t="n">
         <v>28</v>
@@ -2976,7 +3043,7 @@
         <v>10</v>
       </c>
       <c r="AT14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -2988,7 +3055,7 @@
         <v>14</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -3047,13 +3114,13 @@
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
         <v>85.59999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
         <v>6.5</v>
@@ -3065,22 +3132,22 @@
         <v>0.345</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P15" t="n">
         <v>23.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.74</v>
+        <v>0.742</v>
       </c>
       <c r="R15" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S15" t="n">
         <v>32.4</v>
       </c>
       <c r="T15" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U15" t="n">
         <v>20.8</v>
@@ -3098,19 +3165,19 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC15" t="n">
         <v>-6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3128,7 +3195,7 @@
         <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="n">
         <v>25</v>
@@ -3149,19 +3216,19 @@
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>9</v>
       </c>
       <c r="AS15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT15" t="n">
         <v>12</v>
       </c>
-      <c r="AT15" t="n">
-        <v>11</v>
-      </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>5</v>
@@ -3173,7 +3240,7 @@
         <v>20</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
         <v>20</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" t="n">
         <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>0.679</v>
+        <v>0.675</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J16" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>0.458</v>
@@ -3241,16 +3308,16 @@
         <v>5.2</v>
       </c>
       <c r="M16" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O16" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P16" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q16" t="n">
         <v>0.775</v>
@@ -3262,13 +3329,13 @@
         <v>32.2</v>
       </c>
       <c r="T16" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U16" t="n">
         <v>21.7</v>
       </c>
       <c r="V16" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W16" t="n">
         <v>8.5</v>
@@ -3277,43 +3344,43 @@
         <v>4.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z16" t="n">
         <v>19.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AD16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF16" t="n">
         <v>4</v>
       </c>
-      <c r="AE16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>3</v>
-      </c>
       <c r="AG16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH16" t="n">
         <v>5</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,7 +3389,7 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>9</v>
@@ -3334,16 +3401,16 @@
         <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS16" t="n">
         <v>15</v>
       </c>
       <c r="AT16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV16" t="n">
         <v>6</v>
@@ -3352,22 +3419,22 @@
         <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY16" t="n">
         <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>-2.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
         <v>20</v>
@@ -3486,7 +3553,7 @@
         <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
         <v>29</v>
@@ -3495,10 +3562,10 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="n">
         <v>19</v>
@@ -3528,10 +3595,10 @@
         <v>29</v>
       </c>
       <c r="AV17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX17" t="n">
         <v>22</v>
@@ -3543,7 +3610,7 @@
         <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -3578,25 +3645,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" t="n">
         <v>38</v>
       </c>
       <c r="F18" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" t="n">
-        <v>0.487</v>
+        <v>0.494</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J18" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K18" t="n">
         <v>0.457</v>
@@ -3608,34 +3675,34 @@
         <v>18.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.364</v>
+        <v>0.365</v>
       </c>
       <c r="O18" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P18" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.762</v>
+        <v>0.763</v>
       </c>
       <c r="R18" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S18" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T18" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U18" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V18" t="n">
         <v>16.7</v>
       </c>
       <c r="W18" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="X18" t="n">
         <v>4.9</v>
@@ -3653,10 +3720,10 @@
         <v>97.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3668,7 +3735,7 @@
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI18" t="n">
         <v>17</v>
@@ -3677,7 +3744,7 @@
         <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
@@ -3698,13 +3765,13 @@
         <v>11</v>
       </c>
       <c r="AR18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS18" t="n">
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
@@ -3716,22 +3783,22 @@
         <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY18" t="n">
         <v>14</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
         <v>18</v>
       </c>
       <c r="BB18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" t="n">
-        <v>0.205</v>
+        <v>0.208</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J19" t="n">
         <v>83.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L19" t="n">
         <v>4.9</v>
@@ -3793,13 +3860,13 @@
         <v>0.332</v>
       </c>
       <c r="O19" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="P19" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R19" t="n">
         <v>11.7</v>
@@ -3808,16 +3875,16 @@
         <v>29.3</v>
       </c>
       <c r="T19" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U19" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V19" t="n">
         <v>15.1</v>
       </c>
       <c r="W19" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X19" t="n">
         <v>3.9</v>
@@ -3826,19 +3893,19 @@
         <v>5.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA19" t="n">
         <v>21.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-8.6</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,16 +3917,16 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ19" t="n">
         <v>13</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3889,13 +3956,13 @@
         <v>27</v>
       </c>
       <c r="AU19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV19" t="n">
         <v>24</v>
       </c>
       <c r="AW19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX19" t="n">
         <v>28</v>
@@ -3904,13 +3971,13 @@
         <v>26</v>
       </c>
       <c r="AZ19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA19" t="n">
         <v>5</v>
       </c>
       <c r="BB19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -3945,25 +4012,25 @@
         <v>77</v>
       </c>
       <c r="E20" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" t="n">
-        <v>0.532</v>
+        <v>0.545</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>82.5</v>
+        <v>82.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
         <v>7.2</v>
@@ -3972,37 +4039,37 @@
         <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="O20" t="n">
         <v>16.5</v>
       </c>
       <c r="P20" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.759</v>
+        <v>0.755</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>43.3</v>
+        <v>43.6</v>
       </c>
       <c r="U20" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V20" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W20" t="n">
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
         <v>5.8</v>
@@ -4011,37 +4078,37 @@
         <v>18.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.09999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL20" t="n">
         <v>19</v>
@@ -4056,16 +4123,16 @@
         <v>21</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
         <v>10</v>
       </c>
       <c r="AS20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT20" t="n">
         <v>16</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
       </c>
       <c r="F21" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" t="n">
-        <v>0.192</v>
+        <v>0.195</v>
       </c>
       <c r="H21" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J21" t="n">
         <v>82.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.427</v>
+        <v>0.428</v>
       </c>
       <c r="L21" t="n">
         <v>6.8</v>
@@ -4154,37 +4221,37 @@
         <v>19.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O21" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="P21" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="Q21" t="n">
         <v>0.771</v>
       </c>
       <c r="R21" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S21" t="n">
         <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U21" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V21" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W21" t="n">
         <v>7.1</v>
       </c>
       <c r="X21" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y21" t="n">
         <v>4.4</v>
@@ -4196,13 +4263,13 @@
         <v>19</v>
       </c>
       <c r="AB21" t="n">
-        <v>91.8</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-9.5</v>
+        <v>-9.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4226,7 +4293,7 @@
         <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -4384,19 +4451,19 @@
         <v>1.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4423,7 +4490,7 @@
         <v>7</v>
       </c>
       <c r="AQ22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -4491,82 +4558,82 @@
         <v>77</v>
       </c>
       <c r="E23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G23" t="n">
-        <v>0.325</v>
+        <v>0.312</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J23" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
         <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O23" t="n">
         <v>14</v>
       </c>
       <c r="P23" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.732</v>
+        <v>0.73</v>
       </c>
       <c r="R23" t="n">
         <v>9.9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U23" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
       </c>
       <c r="W23" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X23" t="n">
         <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA23" t="n">
         <v>18</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.6</v>
+        <v>-5.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4590,7 +4657,7 @@
         <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4605,22 +4672,22 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV23" t="n">
         <v>21</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>20</v>
       </c>
       <c r="AW23" t="n">
         <v>13</v>
@@ -4629,10 +4696,10 @@
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -4670,31 +4737,31 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" t="n">
         <v>18</v>
       </c>
       <c r="F24" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G24" t="n">
-        <v>0.228</v>
+        <v>0.231</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="J24" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.407</v>
+        <v>0.408</v>
       </c>
       <c r="L24" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M24" t="n">
         <v>26.1</v>
@@ -4703,37 +4770,37 @@
         <v>0.324</v>
       </c>
       <c r="O24" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P24" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q24" t="n">
         <v>0.67</v>
       </c>
       <c r="R24" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S24" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="T24" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U24" t="n">
         <v>20.5</v>
       </c>
       <c r="V24" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="W24" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z24" t="n">
         <v>21.5</v>
@@ -4745,10 +4812,10 @@
         <v>91.59999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>-9.1</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4766,7 +4833,7 @@
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
@@ -4781,7 +4848,7 @@
         <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP24" t="n">
         <v>11</v>
@@ -4790,7 +4857,7 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4808,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY24" t="n">
         <v>27</v>
@@ -4817,7 +4884,7 @@
         <v>25</v>
       </c>
       <c r="BA24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" t="n">
         <v>39</v>
       </c>
       <c r="F25" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" t="n">
-        <v>0.494</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>48.5</v>
@@ -4870,10 +4937,10 @@
         <v>38.9</v>
       </c>
       <c r="J25" t="n">
-        <v>85.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="K25" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L25" t="n">
         <v>8.6</v>
@@ -4882,7 +4949,7 @@
         <v>25.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O25" t="n">
         <v>16.5</v>
@@ -4891,16 +4958,16 @@
         <v>21.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R25" t="n">
         <v>10.9</v>
       </c>
       <c r="S25" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T25" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U25" t="n">
         <v>20.2</v>
@@ -4918,7 +4985,7 @@
         <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA25" t="n">
         <v>20.4</v>
@@ -4930,7 +4997,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4948,10 +5015,10 @@
         <v>5</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
         <v>9</v>
@@ -4960,22 +5027,22 @@
         <v>9</v>
       </c>
       <c r="AN25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
         <v>14</v>
       </c>
       <c r="AS25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
@@ -4996,13 +5063,13 @@
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA25" t="n">
         <v>13</v>
       </c>
       <c r="BB25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -5034,19 +5101,19 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" t="n">
         <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.654</v>
+        <v>0.649</v>
       </c>
       <c r="H26" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I26" t="n">
         <v>38.6</v>
@@ -5061,7 +5128,7 @@
         <v>10</v>
       </c>
       <c r="M26" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="N26" t="n">
         <v>0.366</v>
@@ -5073,7 +5140,7 @@
         <v>19.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.802</v>
+        <v>0.801</v>
       </c>
       <c r="R26" t="n">
         <v>10.8</v>
@@ -5082,10 +5149,10 @@
         <v>35.3</v>
       </c>
       <c r="T26" t="n">
-        <v>46.2</v>
+        <v>46.1</v>
       </c>
       <c r="U26" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V26" t="n">
         <v>13.6</v>
@@ -5103,16 +5170,16 @@
         <v>18.1</v>
       </c>
       <c r="AA26" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>103</v>
+        <v>102.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5142,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5172,7 +5239,7 @@
         <v>27</v>
       </c>
       <c r="AX26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5181,10 +5248,10 @@
         <v>2</v>
       </c>
       <c r="BA26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" t="n">
         <v>27</v>
       </c>
       <c r="F27" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" t="n">
-        <v>0.346</v>
+        <v>0.351</v>
       </c>
       <c r="H27" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I27" t="n">
         <v>36.6</v>
       </c>
       <c r="J27" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K27" t="n">
         <v>0.453</v>
@@ -5243,10 +5310,10 @@
         <v>5.6</v>
       </c>
       <c r="M27" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O27" t="n">
         <v>22.2</v>
@@ -5255,28 +5322,28 @@
         <v>28.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.767</v>
+        <v>0.769</v>
       </c>
       <c r="R27" t="n">
         <v>11.1</v>
       </c>
       <c r="S27" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T27" t="n">
-        <v>44.3</v>
+        <v>44.5</v>
       </c>
       <c r="U27" t="n">
         <v>20.1</v>
       </c>
       <c r="V27" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W27" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X27" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="n">
         <v>6.3</v>
@@ -5288,13 +5355,13 @@
         <v>23.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4</v>
+        <v>-3.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5315,7 +5382,7 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL27" t="n">
         <v>28</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5333,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
         <v>12</v>
@@ -5342,7 +5409,7 @@
         <v>9</v>
       </c>
       <c r="AT27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU27" t="n">
         <v>28</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -5413,28 +5480,28 @@
         <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J28" t="n">
-        <v>84</v>
+        <v>83.7</v>
       </c>
       <c r="K28" t="n">
         <v>0.466</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.365</v>
+        <v>0.368</v>
       </c>
       <c r="O28" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P28" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
         <v>0.779</v>
@@ -5446,37 +5513,37 @@
         <v>33.9</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="V28" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="W28" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.2</v>
+        <v>103</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5494,7 +5561,7 @@
         <v>4</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK28" t="n">
         <v>4</v>
@@ -5506,7 +5573,7 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>17</v>
@@ -5515,13 +5582,13 @@
         <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
         <v>14</v>
@@ -5530,7 +5597,7 @@
         <v>4</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
         <v>10</v>
@@ -5545,7 +5612,7 @@
         <v>7</v>
       </c>
       <c r="BA28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" t="n">
         <v>32</v>
       </c>
       <c r="G29" t="n">
-        <v>0.59</v>
+        <v>0.584</v>
       </c>
       <c r="H29" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I29" t="n">
         <v>38</v>
       </c>
       <c r="J29" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K29" t="n">
         <v>0.456</v>
@@ -5607,25 +5674,25 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O29" t="n">
         <v>19.6</v>
       </c>
       <c r="P29" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q29" t="n">
         <v>0.787</v>
       </c>
       <c r="R29" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S29" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T29" t="n">
         <v>41.5</v>
@@ -5640,7 +5707,7 @@
         <v>7.5</v>
       </c>
       <c r="X29" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y29" t="n">
         <v>5</v>
@@ -5649,31 +5716,31 @@
         <v>20.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
         <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ29" t="n">
         <v>14</v>
@@ -5685,7 +5752,7 @@
         <v>8</v>
       </c>
       <c r="AM29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN29" t="n">
         <v>11</v>
@@ -5700,22 +5767,22 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV29" t="n">
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX29" t="n">
         <v>23</v>
@@ -5733,7 +5800,7 @@
         <v>4</v>
       </c>
       <c r="BC29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30" t="n">
         <v>42</v>
       </c>
       <c r="G30" t="n">
-        <v>0.462</v>
+        <v>0.455</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5786,13 +5853,13 @@
         <v>0.447</v>
       </c>
       <c r="L30" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M30" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O30" t="n">
         <v>16.9</v>
@@ -5813,43 +5880,43 @@
         <v>43.9</v>
       </c>
       <c r="U30" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V30" t="n">
         <v>15.3</v>
       </c>
       <c r="W30" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X30" t="n">
         <v>6</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.90000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
@@ -5864,13 +5931,13 @@
         <v>18</v>
       </c>
       <c r="AL30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM30" t="n">
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO30" t="n">
         <v>14</v>
@@ -5885,10 +5952,10 @@
         <v>4</v>
       </c>
       <c r="AS30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU30" t="n">
         <v>30</v>
@@ -5900,10 +5967,10 @@
         <v>17</v>
       </c>
       <c r="AX30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ30" t="n">
         <v>11</v>
@@ -5912,7 +5979,7 @@
         <v>22</v>
       </c>
       <c r="BB30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC30" t="n">
         <v>15</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="n">
         <v>33</v>
       </c>
       <c r="G31" t="n">
-        <v>0.577</v>
+        <v>0.571</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J31" t="n">
-        <v>82.3</v>
+        <v>82.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.465</v>
+        <v>0.463</v>
       </c>
       <c r="L31" t="n">
         <v>6</v>
@@ -5974,7 +6041,7 @@
         <v>16.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="O31" t="n">
         <v>15.9</v>
@@ -5986,16 +6053,16 @@
         <v>0.742</v>
       </c>
       <c r="R31" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S31" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="T31" t="n">
         <v>44.3</v>
       </c>
       <c r="U31" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="V31" t="n">
         <v>14.9</v>
@@ -6013,16 +6080,16 @@
         <v>20.9</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6040,7 +6107,7 @@
         <v>9</v>
       </c>
       <c r="AJ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK31" t="n">
         <v>5</v>
@@ -6061,13 +6128,13 @@
         <v>22</v>
       </c>
       <c r="AQ31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR31" t="n">
         <v>22</v>
       </c>
-      <c r="AR31" t="n">
-        <v>23</v>
-      </c>
       <c r="AS31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT31" t="n">
         <v>10</v>
@@ -6082,22 +6149,22 @@
         <v>20</v>
       </c>
       <c r="AX31" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB31" t="n">
         <v>18</v>
       </c>
-      <c r="BA31" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>17</v>
-      </c>
       <c r="BC31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-8-2014-15</t>
+          <t>2015-04-08</t>
         </is>
       </c>
     </row>
